--- a/data/trans_dic/P16A08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>1,22; 2,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>1,82; 4,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,71; 4,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,83; 3,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,77; 4,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,3; 5,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>2,85; 5,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,58; 4,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>2,32; 3,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>2,99; 4,68</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,63; 4,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>2,14; 3,62</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,72%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,5; 3,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,61; 4,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,15; 3,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,02; 5,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,19; 5,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,79; 7,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>4,6; 6,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>4,23; 7,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,52; 3,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,85; 5,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>3,62; 4,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,0; 5,99</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,11%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,58; 5,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,23; 8,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,94; 6,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,39; 4,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>2,45; 6,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,01; 10,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,09; 9,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,25; 7,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,83; 5,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>4,76; 8,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>4,47; 7,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,22; 5,32</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,89; 2,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,78; 4,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,53; 3,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,67; 4,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,32; 4,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,75; 6,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,7; 6,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,38; 6,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,73; 3,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,99; 5,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,75; 4,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>3,74; 5,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,77%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,25</t>
+          <t>0,78; 3,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,63</t>
+          <t>2,57; 4,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,62</t>
+          <t>2,1; 3,56</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,13</t>
+          <t>2,53; 4,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,64</t>
+          <t>4,05; 19,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 5,99</t>
+          <t>3,79; 11,05</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,05</t>
+          <t>1,48; 4,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,33</t>
+          <t>4,24; 7,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,32</t>
+          <t>3,22; 5,47</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,1</t>
+          <t>2,4; 4,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 6,6</t>
+          <t>4,28; 13,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 5,0</t>
+          <t>3,67; 8,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A08-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A08-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,97</t>
+          <t>1,2; 2,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,09</t>
+          <t>1,73; 4,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,07</t>
+          <t>1,68; 4,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,22</t>
+          <t>0,85; 3,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,79</t>
+          <t>2,73; 4,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,62</t>
+          <t>3,39; 5,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,62</t>
+          <t>2,8; 5,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,59</t>
+          <t>2,65; 4,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,65</t>
+          <t>2,33; 3,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,99; 4,68</t>
+          <t>3,0; 4,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 4,38</t>
+          <t>2,66; 4,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,56</t>
+          <t>2,13; 3,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,01</t>
+          <t>1,48; 3,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,29</t>
+          <t>2,56; 4,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,79</t>
+          <t>2,22; 3,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,88</t>
+          <t>2,59; 4,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,17</t>
+          <t>3,26; 5,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 7,13</t>
+          <t>4,72; 7,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,67</t>
+          <t>4,64; 6,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 19,27</t>
+          <t>4,01; 18,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,72</t>
+          <t>2,52; 3,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,27</t>
+          <t>3,83; 5,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 4,86</t>
+          <t>3,57; 4,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 11,05</t>
+          <t>3,82; 11,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 5,99</t>
+          <t>2,58; 6,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,14</t>
+          <t>3,22; 7,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,88</t>
+          <t>2,94; 6,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,55</t>
+          <t>1,51; 4,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,51</t>
+          <t>2,31; 6,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 10,11</t>
+          <t>4,87; 9,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,78</t>
+          <t>4,98; 9,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 7,36</t>
+          <t>4,24; 7,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,38</t>
+          <t>2,94; 5,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,26</t>
+          <t>4,57; 8,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 7,53</t>
+          <t>4,45; 7,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,47</t>
+          <t>3,12; 5,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,97</t>
+          <t>1,88; 3,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,1</t>
+          <t>2,78; 4,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 3,76</t>
+          <t>2,53; 3,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,08</t>
+          <t>2,41; 4,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 4,64</t>
+          <t>3,28; 4,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 6,3</t>
+          <t>4,73; 6,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,31</t>
+          <t>4,53; 6,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 13,94</t>
+          <t>4,26; 14,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,58</t>
+          <t>2,71; 3,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 5,04</t>
+          <t>3,97; 4,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 4,75</t>
+          <t>3,78; 4,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 8,67</t>
+          <t>3,63; 8,69</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20037</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26445</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>20088</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8759</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47998</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>59389</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39832</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26296</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>68035</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>85834</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>59920</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>35055</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12414; 30214</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16841; 39465</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12670; 30742</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4372; 17492</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35903; 63146</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>45163; 75255</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27881; 55033</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19940; 34846</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54623; 88142</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>69203; 107236</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>46475; 77815</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26979; 46578</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35856</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65273</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>59387</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>85028</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>64905</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>102884</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>110922</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>166013</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>100761</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>168158</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>170309</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>251041</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25074; 51692</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50243; 82411</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>46100; 75345</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>59405; 113852</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>51709; 81470</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>82636; 123773</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>92191; 134930</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>89688; 412217</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>82738; 123743</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>142001; 193965</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>145173; 199200</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>172836; 512200</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22320</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24891</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24762</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17131</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19374</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>32933</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38678</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37373</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>41694</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>57823</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>63440</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>54504</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14253; 33658</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15449; 37756</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16052; 36809</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9750; 30049</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10995; 30347</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22271; 45060</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27346; 52132</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28012; 50327</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30212; 56222</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>42830; 76275</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>48780; 81092</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>40805; 70363</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>78213</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>116610</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>104236</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>110918</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>132277</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>195206</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>189432</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>229682</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>210489</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>311815</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>293668</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>340600</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>61545; 98468</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>94888; 140813</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>85621; 126533</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>82984; 140785</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>110742; 154949</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>167543; 224798</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>159880; 214817</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>155608; 514848</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>180513; 242450</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>276243; 346025</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>261469; 327985</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>258065; 617058</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>